--- a/data/Excel Workbooks/Calvin/IranDataWorkbook.xlsx
+++ b/data/Excel Workbooks/Calvin/IranDataWorkbook.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="130">
   <si>
     <t>Notes</t>
   </si>
@@ -941,6 +941,12 @@
   </si>
   <si>
     <t>Calvin</t>
+  </si>
+  <si>
+    <t>iQp</t>
+  </si>
+  <si>
+    <t>iXp</t>
   </si>
 </sst>
 </file>
@@ -2410,7 +2416,7 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2637,16 +2643,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2655,14 +2661,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="493">
@@ -4052,11 +4061,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2110554408"/>
-        <c:axId val="-2110546408"/>
+        <c:axId val="2120621624"/>
+        <c:axId val="2120613608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2110554408"/>
+        <c:axId val="2120621624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4089,12 +4098,12 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110546408"/>
+        <c:crossAx val="2120613608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2110546408"/>
+        <c:axId val="2120613608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0"/>
@@ -4128,7 +4137,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110554408"/>
+        <c:crossAx val="2120621624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
@@ -6292,7 +6301,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J22"/>
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6319,13 +6328,11 @@
       <c r="E1" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="16" t="str">
-        <f>'Iran Workbook'!K9</f>
-        <v>iQ</v>
-      </c>
-      <c r="G1" s="16" t="str">
-        <f>'Iran Workbook'!L9</f>
-        <v>iX</v>
+      <c r="F1" s="105" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="105" t="s">
+        <v>129</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>105</v>
@@ -8118,172 +8125,172 @@
       </c>
     </row>
     <row r="30" spans="1:41" ht="15" customHeight="1">
-      <c r="A30" s="96" t="s">
+      <c r="A30" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="98" t="s">
+      <c r="B30" s="96" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="98" t="s">
+      <c r="D30" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="98" t="s">
+      <c r="E30" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="98" t="s">
+      <c r="F30" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="G30" s="98" t="s">
+      <c r="G30" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="98" t="s">
+      <c r="H30" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="I30" s="98" t="s">
+      <c r="I30" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="J30" s="98" t="s">
+      <c r="J30" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="K30" s="98" t="s">
+      <c r="K30" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="L30" s="98" t="s">
+      <c r="L30" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="M30" s="102" t="s">
+      <c r="M30" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="N30" s="96" t="s">
+      <c r="N30" s="102" t="s">
         <v>54</v>
       </c>
       <c r="O30" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="P30" s="98" t="s">
+      <c r="P30" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="Q30" s="98" t="s">
+      <c r="Q30" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="R30" s="98" t="s">
+      <c r="R30" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="S30" s="98" t="s">
+      <c r="S30" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="T30" s="96" t="s">
+      <c r="T30" s="102" t="s">
         <v>25</v>
       </c>
       <c r="U30" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="V30" s="98" t="s">
+      <c r="V30" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="W30" s="98" t="s">
+      <c r="W30" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="X30" s="98" t="s">
+      <c r="X30" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="Y30" s="98" t="s">
+      <c r="Y30" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="Z30" s="98" t="s">
+      <c r="Z30" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="AA30" s="98" t="s">
+      <c r="AA30" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="AB30" s="98" t="s">
+      <c r="AB30" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="AC30" s="98" t="s">
+      <c r="AC30" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="AD30" s="102" t="s">
+      <c r="AD30" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="AE30" s="96" t="s">
+      <c r="AE30" s="102" t="s">
         <v>80</v>
       </c>
       <c r="AF30" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="AG30" s="98" t="s">
+      <c r="AG30" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="AH30" s="98" t="s">
+      <c r="AH30" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="AI30" s="98" t="s">
+      <c r="AI30" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="AJ30" s="98" t="s">
+      <c r="AJ30" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="AK30" s="98" t="s">
+      <c r="AK30" s="96" t="s">
         <v>119</v>
       </c>
-      <c r="AL30" s="98" t="s">
+      <c r="AL30" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="AM30" s="98" t="s">
+      <c r="AM30" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="AN30" s="98" t="s">
+      <c r="AN30" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="AO30" s="102" t="s">
+      <c r="AO30" s="98" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:41">
-      <c r="A31" s="97"/>
-      <c r="B31" s="99"/>
+      <c r="A31" s="103"/>
+      <c r="B31" s="97"/>
       <c r="C31" s="101"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="103"/>
-      <c r="N31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
+      <c r="L31" s="97"/>
+      <c r="M31" s="104"/>
+      <c r="N31" s="103"/>
       <c r="O31" s="101"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="99"/>
-      <c r="R31" s="99"/>
-      <c r="S31" s="99"/>
-      <c r="T31" s="97"/>
+      <c r="P31" s="97"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="97"/>
+      <c r="S31" s="97"/>
+      <c r="T31" s="103"/>
       <c r="U31" s="101"/>
-      <c r="V31" s="99"/>
-      <c r="W31" s="99"/>
-      <c r="X31" s="99"/>
-      <c r="Y31" s="99"/>
-      <c r="Z31" s="99"/>
-      <c r="AA31" s="99"/>
-      <c r="AB31" s="99"/>
-      <c r="AC31" s="99"/>
-      <c r="AD31" s="104"/>
-      <c r="AE31" s="97"/>
+      <c r="V31" s="97"/>
+      <c r="W31" s="97"/>
+      <c r="X31" s="97"/>
+      <c r="Y31" s="97"/>
+      <c r="Z31" s="97"/>
+      <c r="AA31" s="97"/>
+      <c r="AB31" s="97"/>
+      <c r="AC31" s="97"/>
+      <c r="AD31" s="99"/>
+      <c r="AE31" s="103"/>
       <c r="AF31" s="101"/>
-      <c r="AG31" s="99"/>
-      <c r="AH31" s="99"/>
-      <c r="AI31" s="99"/>
-      <c r="AJ31" s="99"/>
-      <c r="AK31" s="99"/>
-      <c r="AL31" s="99"/>
-      <c r="AM31" s="99"/>
-      <c r="AN31" s="99"/>
-      <c r="AO31" s="104"/>
+      <c r="AG31" s="97"/>
+      <c r="AH31" s="97"/>
+      <c r="AI31" s="97"/>
+      <c r="AJ31" s="97"/>
+      <c r="AK31" s="97"/>
+      <c r="AL31" s="97"/>
+      <c r="AM31" s="97"/>
+      <c r="AN31" s="97"/>
+      <c r="AO31" s="99"/>
     </row>
     <row r="32" spans="1:41">
       <c r="A32" s="38">
@@ -11769,23 +11776,18 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="AM30:AM31"/>
-    <mergeCell ref="AN30:AN31"/>
-    <mergeCell ref="AO30:AO31"/>
-    <mergeCell ref="AF30:AF31"/>
-    <mergeCell ref="AG30:AG31"/>
-    <mergeCell ref="AH30:AH31"/>
-    <mergeCell ref="AI30:AI31"/>
-    <mergeCell ref="AJ30:AJ31"/>
-    <mergeCell ref="AK30:AK31"/>
-    <mergeCell ref="AL30:AL31"/>
-    <mergeCell ref="Y30:Y31"/>
-    <mergeCell ref="AB30:AB31"/>
-    <mergeCell ref="AC30:AC31"/>
-    <mergeCell ref="AD30:AD31"/>
-    <mergeCell ref="AE30:AE31"/>
-    <mergeCell ref="Z30:Z31"/>
-    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="X30:X31"/>
     <mergeCell ref="N30:N31"/>
@@ -11798,18 +11800,23 @@
     <mergeCell ref="W30:W31"/>
     <mergeCell ref="Q30:Q31"/>
     <mergeCell ref="R30:R31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="Y30:Y31"/>
+    <mergeCell ref="AB30:AB31"/>
+    <mergeCell ref="AC30:AC31"/>
+    <mergeCell ref="AD30:AD31"/>
+    <mergeCell ref="AE30:AE31"/>
+    <mergeCell ref="Z30:Z31"/>
+    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="AM30:AM31"/>
+    <mergeCell ref="AN30:AN31"/>
+    <mergeCell ref="AO30:AO31"/>
+    <mergeCell ref="AF30:AF31"/>
+    <mergeCell ref="AG30:AG31"/>
+    <mergeCell ref="AH30:AH31"/>
+    <mergeCell ref="AI30:AI31"/>
+    <mergeCell ref="AJ30:AJ31"/>
+    <mergeCell ref="AK30:AK31"/>
+    <mergeCell ref="AL30:AL31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
